--- a/LMT.xlsx
+++ b/LMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C8FD30-88DC-47CC-9F85-7DFB452A6EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9E9DDE-CAF3-43A1-BBB1-C6DE0563F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{EA792E1E-3BA0-4584-A29C-9504A225675A}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{EA792E1E-3BA0-4584-A29C-9504A225675A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -941,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F8FC46-0B49-4B94-B3CC-6630A63E4D0B}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1295,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9725CA57-4E24-4CA5-A0F0-6B7F19F9F5C3}">
   <dimension ref="A1:T305"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/LMT.xlsx
+++ b/LMT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9E9DDE-CAF3-43A1-BBB1-C6DE0563F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351FAEE-D77D-41FC-8ACE-AFD46A53E8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{EA792E1E-3BA0-4584-A29C-9504A225675A}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{EA792E1E-3BA0-4584-A29C-9504A225675A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F8FC46-0B49-4B94-B3CC-6630A63E4D0B}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1295,11 +1295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9725CA57-4E24-4CA5-A0F0-6B7F19F9F5C3}">
   <dimension ref="A1:T305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
